--- a/settings/UIT_Report.xlsx
+++ b/settings/UIT_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,22 +448,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>setting_32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
         <is>
           <t>Fail</t>
         </is>

--- a/settings/UIT_Report.xlsx
+++ b/settings/UIT_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,12 +448,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>setting_32</t>
+          <t>setting_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fail</t>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>setting_4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>setting_5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>

--- a/settings/UIT_Report.xlsx
+++ b/settings/UIT_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,34 +448,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>setting_3</t>
+          <t>control_center_6</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>setting_4</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>setting_5</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>

--- a/settings/UIT_Report.xlsx
+++ b/settings/UIT_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,66 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>control_center_7</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>control_center_12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>control_center_16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>control_center_21</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>control_center_8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/settings/UIT_Report.xlsx
+++ b/settings/UIT_Report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,70 +448,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>control_center_6</t>
+          <t>setting_3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>control_center_7</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>control_center_12</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>control_center_16</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>control_center_21</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>control_center_8</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
